--- a/reports/data/survey-1.xlsx
+++ b/reports/data/survey-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\R\01_paper\climate-crisis-behavior-sem\reports\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kojan\Documents\R\02_Publications\climate-crisis-behavior-sem\reports\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E4FD2A50-198D-4F04-A5D3-D61844021000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15600" xr2:uid="{8062BF73-7EC2-404F-9232-83A8EDB871E6}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="survey-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="152">
   <si>
     <t>Variable</t>
   </si>
@@ -441,61 +440,9 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>(Sorrell et al., 2020)</t>
-  </si>
-  <si>
-    <t>(Tobler et al., 2012)</t>
-  </si>
-  <si>
-    <t>(Plöger, 2020)</t>
-  </si>
-  <si>
-    <t>(Plöger, 2020; Tobler et al. 2012)</t>
-  </si>
-  <si>
     <t>Parker 2018</t>
   </si>
   <si>
-    <t>(Nadelson et al., 2014; McKnight and Choudhury, 2006)</t>
-  </si>
-  <si>
-    <t>(Grimmelikhuijsen &amp; Knies, 2017)</t>
-  </si>
-  <si>
-    <t>(McKnight and Choudhury, 2006)</t>
-  </si>
-  <si>
-    <t>(Grimmelikhuijsen &amp; Knies, 2017; McKnight et al., 2002)</t>
-  </si>
-  <si>
-    <t>(Nadelson et al., 2014)</t>
-  </si>
-  <si>
-    <t>(Shafiei &amp; Maleksaeidi, 2020)</t>
-  </si>
-  <si>
-    <t>(Taddicken and Neverla, 2011)</t>
-  </si>
-  <si>
-    <t>(Bubeck et al., 2018; Cheng and Ng, 2006)</t>
-  </si>
-  <si>
-    <t>(Bubeck et al., 2018)</t>
-  </si>
-  <si>
-    <t>(Brody et al., 2012)
-(Chen, 2020)</t>
-  </si>
-  <si>
-    <t>(Brody et al., 2012; Chen, 2020)</t>
-  </si>
-  <si>
-    <t>(Chen, 2020)</t>
-  </si>
-  <si>
-    <t>(Rhodes et al., 2006; Niemic et al., 2020)</t>
-  </si>
-  <si>
     <t>Knowledge*</t>
   </si>
   <si>
@@ -518,12 +465,57 @@
   </si>
   <si>
     <t>CO2 usually remains in the atmosphere for between 10 and 20 years.</t>
+  </si>
+  <si>
+    <t>Tobler et al., 2012</t>
+  </si>
+  <si>
+    <t>Based on Sorrel et al., 2020</t>
+  </si>
+  <si>
+    <t>Based on Plöger, 2020</t>
+  </si>
+  <si>
+    <t>Adapted from Tobler et al. 2012</t>
+  </si>
+  <si>
+    <t>Adapted from Nadelson et al., 2014, and McKnight and Choudhury, 2006</t>
+  </si>
+  <si>
+    <t>Adapted from Grimmelikhuijsen &amp; Knies, 2017</t>
+  </si>
+  <si>
+    <t>Adapted from McKnight and Choudhury, 2006</t>
+  </si>
+  <si>
+    <t>Adapted from Nadelson et al., 2014</t>
+  </si>
+  <si>
+    <t>Adapted from Shafiei &amp; Maleksaeidi, 2020</t>
+  </si>
+  <si>
+    <t>Taddicken and Neverla, 2011</t>
+  </si>
+  <si>
+    <t>Adapted from Bubeck et al., 2018, and Cheng and Ng, 2006</t>
+  </si>
+  <si>
+    <t>Adapted from Bubeck et al., 2018</t>
+  </si>
+  <si>
+    <t>Adapted from Brody et al., 2012, and Chen, 2020</t>
+  </si>
+  <si>
+    <t>Adapted from Chen, 2020</t>
+  </si>
+  <si>
+    <t>Adapted from Rhodes et al., 2006, and Niemic et al., 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,22 +964,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F09214-BEC5-4AEF-9EB8-2CE720BD2581}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +996,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1006,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1028,10 +1020,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1044,11 +1036,11 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1062,10 +1054,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1086,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1105,7 +1097,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1119,10 +1111,10 @@
         <v>81</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1136,27 +1128,27 @@
         <v>81</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1170,12 +1162,12 @@
         <v>81</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
@@ -1186,13 +1178,13 @@
       <c r="D13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E13" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
@@ -1204,10 +1196,10 @@
         <v>81</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
@@ -1217,10 +1209,10 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1234,12 +1226,12 @@
         <v>11</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>29</v>
@@ -1251,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1268,12 +1260,12 @@
         <v>11</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>32</v>
@@ -1284,11 +1276,11 @@
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E19" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1302,10 +1294,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -1319,10 +1311,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1335,11 +1327,11 @@
       <c r="D22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E22" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11" t="s">
         <v>35</v>
       </c>
@@ -1353,12 +1345,12 @@
         <v>11</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>38</v>
@@ -1369,11 +1361,11 @@
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
@@ -1384,7 +1376,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -1392,18 +1384,18 @@
         <v>41</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>42</v>
@@ -1415,10 +1407,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1432,10 +1424,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11" t="s">
         <v>44</v>
       </c>
@@ -1449,10 +1441,10 @@
         <v>11</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1466,10 +1458,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11" t="s">
         <v>44</v>
       </c>
@@ -1482,11 +1474,11 @@
       <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="E31" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +1489,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9" t="s">
         <v>49</v>
       </c>
@@ -1511,10 +1503,10 @@
         <v>11</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13" t="s">
         <v>49</v>
       </c>
@@ -1527,11 +1519,11 @@
       <c r="D34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E34" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
@@ -1545,10 +1537,10 @@
         <v>11</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -1561,11 +1553,11 @@
       <c r="D36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E36" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9" t="s">
         <v>53</v>
       </c>
@@ -1579,10 +1571,10 @@
         <v>11</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
         <v>53</v>
       </c>
@@ -1595,13 +1587,13 @@
       <c r="D38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E38" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>57</v>
@@ -1613,12 +1605,12 @@
         <v>11</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>58</v>
@@ -1629,13 +1621,13 @@
       <c r="D40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E40" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>59</v>
@@ -1647,10 +1639,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13" t="s">
         <v>49</v>
       </c>
@@ -1663,11 +1655,11 @@
       <c r="D42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E42" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9" t="s">
         <v>53</v>
       </c>
@@ -1681,12 +1673,12 @@
         <v>11</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>62</v>
@@ -1697,11 +1689,11 @@
       <c r="D44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E44" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11" t="s">
         <v>63</v>
       </c>
@@ -1715,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
@@ -1731,11 +1723,11 @@
       <c r="D46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E46" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
         <v>63</v>
       </c>
@@ -1748,11 +1740,11 @@
       <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E47" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>67</v>
       </c>
@@ -1766,10 +1758,10 @@
         <v>11</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11" t="s">
         <v>67</v>
       </c>
@@ -1782,11 +1774,11 @@
       <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="E49" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>67</v>
       </c>
@@ -1800,10 +1792,10 @@
         <v>121</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11" t="s">
         <v>67</v>
       </c>
@@ -1816,11 +1808,11 @@
       <c r="D51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E51" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>72</v>
       </c>
@@ -1834,10 +1826,10 @@
         <v>11</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11" t="s">
         <v>72</v>
       </c>
@@ -1850,11 +1842,11 @@
       <c r="D53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="E53" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>72</v>
       </c>
@@ -1868,10 +1860,10 @@
         <v>121</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11" t="s">
         <v>72</v>
       </c>
@@ -1884,14 +1876,11 @@
       <c r="D55" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>145</v>
+      <c r="E55" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E26:E31" location="Sources!A1" display="(Shafiei &amp; Maleksaeidi, 2020)" xr:uid="{F428D6B0-E904-40B1-964E-166516B44D5A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>